--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1676186666666667</v>
+        <v>0.1694406666666667</v>
       </c>
       <c r="H2">
-        <v>0.5028560000000001</v>
+        <v>0.5083219999999999</v>
       </c>
       <c r="I2">
-        <v>0.005977118127032091</v>
+        <v>0.004610192448566767</v>
       </c>
       <c r="J2">
-        <v>0.00597711812703209</v>
+        <v>0.004610192448566767</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04154133333333333</v>
+        <v>0.01031333333333333</v>
       </c>
       <c r="N2">
-        <v>0.124624</v>
+        <v>0.03094</v>
       </c>
       <c r="O2">
-        <v>0.005088925111573409</v>
+        <v>0.001146416507271297</v>
       </c>
       <c r="P2">
-        <v>0.005088925111573409</v>
+        <v>0.001146416507271297</v>
       </c>
       <c r="Q2">
-        <v>0.00696310290488889</v>
+        <v>0.001747498075555555</v>
       </c>
       <c r="R2">
-        <v>0.06266792614400001</v>
+        <v>0.01572748268</v>
       </c>
       <c r="S2">
-        <v>3.041710653149422E-05</v>
+        <v>5.28520072473442E-06</v>
       </c>
       <c r="T2">
-        <v>3.041710653149422E-05</v>
+        <v>5.285200724734419E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1676186666666667</v>
+        <v>0.1694406666666667</v>
       </c>
       <c r="H3">
-        <v>0.5028560000000001</v>
+        <v>0.5083219999999999</v>
       </c>
       <c r="I3">
-        <v>0.005977118127032091</v>
+        <v>0.004610192448566767</v>
       </c>
       <c r="J3">
-        <v>0.00597711812703209</v>
+        <v>0.004610192448566767</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>22.410268</v>
       </c>
       <c r="O3">
-        <v>0.915106043637582</v>
+        <v>0.8303652607489888</v>
       </c>
       <c r="P3">
-        <v>0.9151060436375819</v>
+        <v>0.8303652607489886</v>
       </c>
       <c r="Q3">
-        <v>1.252126413934223</v>
+        <v>1.265736916699556</v>
       </c>
       <c r="R3">
-        <v>11.269137725408</v>
+        <v>11.391632250296</v>
       </c>
       <c r="S3">
-        <v>0.005469696921582811</v>
+        <v>0.003828143654657162</v>
       </c>
       <c r="T3">
-        <v>0.005469696921582809</v>
+        <v>0.003828143654657162</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1676186666666667</v>
+        <v>0.1694406666666667</v>
       </c>
       <c r="H4">
-        <v>0.5028560000000001</v>
+        <v>0.5083219999999999</v>
       </c>
       <c r="I4">
-        <v>0.005977118127032091</v>
+        <v>0.004610192448566767</v>
       </c>
       <c r="J4">
-        <v>0.00597711812703209</v>
+        <v>0.004610192448566767</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6514553333333333</v>
+        <v>1.515746</v>
       </c>
       <c r="N4">
-        <v>1.954366</v>
+        <v>4.547238</v>
       </c>
       <c r="O4">
-        <v>0.07980503125084475</v>
+        <v>0.16848832274374</v>
       </c>
       <c r="P4">
-        <v>0.07980503125084475</v>
+        <v>0.16848832274374</v>
       </c>
       <c r="Q4">
-        <v>0.1091960743662222</v>
+        <v>0.2568290127373333</v>
       </c>
       <c r="R4">
-        <v>0.982764669296</v>
+        <v>2.311461114636</v>
       </c>
       <c r="S4">
-        <v>0.0004770040989177866</v>
+        <v>0.0007767635931848706</v>
       </c>
       <c r="T4">
-        <v>0.0004770040989177866</v>
+        <v>0.0007767635931848706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>16.17191166666667</v>
       </c>
       <c r="H5">
-        <v>48.515735</v>
+        <v>48.51573500000001</v>
       </c>
       <c r="I5">
-        <v>0.5766745929546137</v>
+        <v>0.4400102201629409</v>
       </c>
       <c r="J5">
-        <v>0.5766745929546135</v>
+        <v>0.4400102201629409</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04154133333333333</v>
+        <v>0.01031333333333333</v>
       </c>
       <c r="N5">
-        <v>0.124624</v>
+        <v>0.03094</v>
       </c>
       <c r="O5">
-        <v>0.005088925111573409</v>
+        <v>0.001146416507271297</v>
       </c>
       <c r="P5">
-        <v>0.005088925111573409</v>
+        <v>0.001146416507271297</v>
       </c>
       <c r="Q5">
-        <v>0.6718027731822223</v>
+        <v>0.1667863156555556</v>
       </c>
       <c r="R5">
-        <v>6.04622495864</v>
+        <v>1.5010768409</v>
       </c>
       <c r="S5">
-        <v>0.002934653817293107</v>
+        <v>0.000504434979762873</v>
       </c>
       <c r="T5">
-        <v>0.002934653817293107</v>
+        <v>0.0005044349797628729</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>16.17191166666667</v>
       </c>
       <c r="H6">
-        <v>48.515735</v>
+        <v>48.51573500000001</v>
       </c>
       <c r="I6">
-        <v>0.5766745929546137</v>
+        <v>0.4400102201629409</v>
       </c>
       <c r="J6">
-        <v>0.5766745929546135</v>
+        <v>0.4400102201629409</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>22.410268</v>
       </c>
       <c r="O6">
-        <v>0.915106043637582</v>
+        <v>0.8303652607489888</v>
       </c>
       <c r="P6">
-        <v>0.9151060436375819</v>
+        <v>0.8303652607489886</v>
       </c>
       <c r="Q6">
         <v>120.8056248407756</v>
@@ -818,10 +818,10 @@
         <v>1087.25062356698</v>
       </c>
       <c r="S6">
-        <v>0.5277184052250095</v>
+        <v>0.3653692011978204</v>
       </c>
       <c r="T6">
-        <v>0.5277184052250093</v>
+        <v>0.3653692011978203</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>16.17191166666667</v>
       </c>
       <c r="H7">
-        <v>48.515735</v>
+        <v>48.51573500000001</v>
       </c>
       <c r="I7">
-        <v>0.5766745929546137</v>
+        <v>0.4400102201629409</v>
       </c>
       <c r="J7">
-        <v>0.5766745929546135</v>
+        <v>0.4400102201629409</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6514553333333333</v>
+        <v>1.515746</v>
       </c>
       <c r="N7">
-        <v>1.954366</v>
+        <v>4.547238</v>
       </c>
       <c r="O7">
-        <v>0.07980503125084475</v>
+        <v>0.16848832274374</v>
       </c>
       <c r="P7">
-        <v>0.07980503125084475</v>
+        <v>0.16848832274374</v>
       </c>
       <c r="Q7">
-        <v>10.53527810544555</v>
+        <v>24.51251042110334</v>
       </c>
       <c r="R7">
-        <v>94.81750294900999</v>
+        <v>220.61259378993</v>
       </c>
       <c r="S7">
-        <v>0.04602153391231112</v>
+        <v>0.0741365839853577</v>
       </c>
       <c r="T7">
-        <v>0.04602153391231111</v>
+        <v>0.07413658398535769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.70386166666667</v>
+        <v>20.41213866666667</v>
       </c>
       <c r="H8">
-        <v>35.111585</v>
+        <v>61.23641600000001</v>
       </c>
       <c r="I8">
-        <v>0.4173482889183543</v>
+        <v>0.5553795873884922</v>
       </c>
       <c r="J8">
-        <v>0.4173482889183543</v>
+        <v>0.5553795873884922</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.04154133333333333</v>
+        <v>0.01031333333333333</v>
       </c>
       <c r="N8">
-        <v>0.124624</v>
+        <v>0.03094</v>
       </c>
       <c r="O8">
-        <v>0.005088925111573409</v>
+        <v>0.001146416507271297</v>
       </c>
       <c r="P8">
-        <v>0.005088925111573409</v>
+        <v>0.001146416507271297</v>
       </c>
       <c r="Q8">
-        <v>0.4861940187822222</v>
+        <v>0.2105171901155555</v>
       </c>
       <c r="R8">
-        <v>4.37574616904</v>
+        <v>1.89465471104</v>
       </c>
       <c r="S8">
-        <v>0.002123854187748807</v>
+        <v>0.0006366963267836892</v>
       </c>
       <c r="T8">
-        <v>0.002123854187748807</v>
+        <v>0.000636696326783689</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.70386166666667</v>
+        <v>20.41213866666667</v>
       </c>
       <c r="H9">
-        <v>35.111585</v>
+        <v>61.23641600000001</v>
       </c>
       <c r="I9">
-        <v>0.4173482889183543</v>
+        <v>0.5553795873884922</v>
       </c>
       <c r="J9">
-        <v>0.4173482889183543</v>
+        <v>0.5553795873884922</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>22.410268</v>
       </c>
       <c r="O9">
-        <v>0.915106043637582</v>
+        <v>0.8303652607489888</v>
       </c>
       <c r="P9">
-        <v>0.9151060436375819</v>
+        <v>0.8303652607489886</v>
       </c>
       <c r="Q9">
-        <v>87.42889219497556</v>
+        <v>152.4804993243876</v>
       </c>
       <c r="R9">
-        <v>786.86002975478</v>
+        <v>1372.324493919488</v>
       </c>
       <c r="S9">
-        <v>0.3819179414909897</v>
+        <v>0.4611679158965111</v>
       </c>
       <c r="T9">
-        <v>0.3819179414909896</v>
+        <v>0.4611679158965111</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.70386166666667</v>
+        <v>20.41213866666667</v>
       </c>
       <c r="H10">
-        <v>35.111585</v>
+        <v>61.23641600000001</v>
       </c>
       <c r="I10">
-        <v>0.4173482889183543</v>
+        <v>0.5553795873884922</v>
       </c>
       <c r="J10">
-        <v>0.4173482889183543</v>
+        <v>0.5553795873884922</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6514553333333333</v>
+        <v>1.515746</v>
       </c>
       <c r="N10">
-        <v>1.954366</v>
+        <v>4.547238</v>
       </c>
       <c r="O10">
-        <v>0.07980503125084475</v>
+        <v>0.16848832274374</v>
       </c>
       <c r="P10">
-        <v>0.07980503125084475</v>
+        <v>0.16848832274374</v>
       </c>
       <c r="Q10">
-        <v>7.624543103345554</v>
+        <v>30.93961753544534</v>
       </c>
       <c r="R10">
-        <v>68.62088793010999</v>
+        <v>278.456557819008</v>
       </c>
       <c r="S10">
-        <v>0.03330649323961585</v>
+        <v>0.09357497516519746</v>
       </c>
       <c r="T10">
-        <v>0.03330649323961585</v>
+        <v>0.09357497516519746</v>
       </c>
     </row>
   </sheetData>
